--- a/OnBoard/output/trust/bio/Bio_Trust_24.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_24.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q97"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>CHLAGLA</t>
         </is>
       </c>
       <c r="F76">
@@ -4145,23 +4145,18 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="I76">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L76">
         <v>0</v>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>NA w inferred l inferred</t>
-        </is>
       </c>
     </row>
     <row r="77">
@@ -4197,10 +4192,10 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -4229,12 +4224,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F78">
@@ -4244,18 +4239,28 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L78">
         <v>0</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>SS8028</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -4291,10 +4296,10 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I79">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -4303,7 +4308,7 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>HOLRA-1</t>
         </is>
       </c>
       <c r="L79">
@@ -4311,7 +4316,7 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>SS8028</t>
+          <t>SS8029</t>
         </is>
       </c>
     </row>
@@ -4348,10 +4353,10 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>208</v>
+        <v>179</v>
       </c>
       <c r="I80">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -4368,7 +4373,7 @@
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>SS8029</t>
+          <t>SS8030</t>
         </is>
       </c>
     </row>
@@ -4405,10 +4410,10 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="I81">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
@@ -4425,7 +4430,7 @@
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>SS8030</t>
+          <t>SS8031</t>
         </is>
       </c>
     </row>
@@ -4462,19 +4467,19 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="I82">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>HOLRA-1</t>
+          <t>HOLRM-1</t>
         </is>
       </c>
       <c r="L82">
@@ -4482,7 +4487,7 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>SS8031</t>
+          <t>SS8032</t>
         </is>
       </c>
     </row>
@@ -4519,19 +4524,19 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="I83">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>HOLRM-1</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L83">
@@ -4539,7 +4544,7 @@
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>SS8032</t>
+          <t>SS8033</t>
         </is>
       </c>
     </row>
@@ -4576,10 +4581,10 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="I84">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
@@ -4596,7 +4601,7 @@
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>SS8033</t>
+          <t>SS8034</t>
         </is>
       </c>
     </row>
@@ -4633,10 +4638,10 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="I85">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
@@ -4645,7 +4650,7 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>HOLRA-5</t>
         </is>
       </c>
       <c r="L85">
@@ -4653,7 +4658,7 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>SS8034</t>
+          <t>SS8035</t>
         </is>
       </c>
     </row>
@@ -4675,7 +4680,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4690,10 +4695,10 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>292</v>
+        <v>191</v>
       </c>
       <c r="I86">
-        <v>182</v>
+        <v>52</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -4702,7 +4707,7 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>HOLRA-5</t>
+          <t>HOLRA-1</t>
         </is>
       </c>
       <c r="L86">
@@ -4710,7 +4715,7 @@
       </c>
       <c r="N86" t="inlineStr">
         <is>
-          <t>SS8035</t>
+          <t>SS8036</t>
         </is>
       </c>
     </row>
@@ -4747,10 +4752,10 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I87">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -4767,7 +4772,7 @@
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>SS8036</t>
+          <t>SS8037</t>
         </is>
       </c>
     </row>
@@ -4804,19 +4809,19 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="I88">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>HOLRA-1</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L88">
@@ -4824,7 +4829,7 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>SS8037</t>
+          <t>SS8038</t>
         </is>
       </c>
     </row>
@@ -4861,19 +4866,19 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="I89">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>HOLRA-1</t>
         </is>
       </c>
       <c r="L89">
@@ -4881,7 +4886,7 @@
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>SS8038</t>
+          <t>SS8039</t>
         </is>
       </c>
     </row>
@@ -4918,10 +4923,10 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="I90">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
@@ -4930,7 +4935,7 @@
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>HOLRA-1</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L90">
@@ -4938,7 +4943,7 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>SS8039</t>
+          <t>SS8040</t>
         </is>
       </c>
     </row>
@@ -4975,10 +4980,10 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="I91">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -4995,7 +5000,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>SS8040</t>
+          <t>SS8041</t>
         </is>
       </c>
     </row>
@@ -5032,10 +5037,10 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="I92">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -5044,7 +5049,7 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>HOLRA-2</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L92">
@@ -5052,7 +5057,7 @@
       </c>
       <c r="N92" t="inlineStr">
         <is>
-          <t>SS8041</t>
+          <t>SS8042</t>
         </is>
       </c>
     </row>
@@ -5089,19 +5094,19 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="I93">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>HOLRA-3</t>
+          <t>HOLRM-4</t>
         </is>
       </c>
       <c r="L93">
@@ -5109,7 +5114,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>SS8042</t>
+          <t>SS8043</t>
         </is>
       </c>
     </row>
@@ -5146,19 +5151,19 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>283</v>
+        <v>191</v>
       </c>
       <c r="I94">
-        <v>190</v>
+        <v>52</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>HOLRM-4</t>
+          <t>HOLRA-1</t>
         </is>
       </c>
       <c r="L94">
@@ -5166,7 +5171,7 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>SS8043</t>
+          <t>SS8044</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5198,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SCOHRHO</t>
         </is>
       </c>
       <c r="F95">
@@ -5203,19 +5208,19 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>191</v>
+        <v>238</v>
       </c>
       <c r="I95">
-        <v>52</v>
+        <v>189</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>HOLRA-1</t>
+          <t>HOLRM-1</t>
         </is>
       </c>
       <c r="L95">
@@ -5223,7 +5228,12 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>SS8044</t>
+          <t>SR483</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>campione stomaco Froglia-Laura</t>
         </is>
       </c>
     </row>
@@ -5250,7 +5260,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>SCOHRHO</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F96">
@@ -5260,82 +5270,20 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="I96">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>SR483</t>
-        </is>
-      </c>
       <c r="P96" t="inlineStr">
-        <is>
-          <t>campione stomaco Froglia-Laura</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>SOLEMON2025</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>MELIKER</t>
-        </is>
-      </c>
-      <c r="F97">
-        <v>1</v>
-      </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
-      <c r="H97">
-        <v>40</v>
-      </c>
-      <c r="I97">
-        <v>33</v>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L97">
-        <v>0</v>
-      </c>
-      <c r="P97" t="inlineStr">
         <is>
           <t>NA w inferred</t>
         </is>
